--- a/data/Dataset/Ratios_add.xlsx
+++ b/data/Dataset/Ratios_add.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ratios" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Ratio 233/236</t>
   </si>
@@ -86,73 +86,14 @@
   </si>
   <si>
     <t>Error (%) 233/235</t>
-  </si>
-  <si>
-    <t>007G9186.exp</t>
-  </si>
-  <si>
-    <t>010G9638.exp</t>
-  </si>
-  <si>
-    <t>013G9186.exp</t>
-  </si>
-  <si>
-    <t>016G9639.exp</t>
-  </si>
-  <si>
-    <t>019G9186.exp</t>
-  </si>
-  <si>
-    <t>022G9640.exp</t>
-  </si>
-  <si>
-    <t>025G9186.exp</t>
-  </si>
-  <si>
-    <t>028G9608.exp</t>
-  </si>
-  <si>
-    <t>031G9186.exp</t>
-  </si>
-  <si>
-    <t>034G9607.exp</t>
-  </si>
-  <si>
-    <t>037G9186.exp</t>
-  </si>
-  <si>
-    <t>040G9606.exp</t>
-  </si>
-  <si>
-    <t>043G9186.exp</t>
-  </si>
-  <si>
-    <t>046G9605.exp</t>
-  </si>
-  <si>
-    <t>049G9186.exp</t>
-  </si>
-  <si>
-    <t>052G9604.exp</t>
-  </si>
-  <si>
-    <t>055G9186.exp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -176,30 +117,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,1393 +417,1368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>0.009961243496309617</v>
       </c>
       <c r="B2">
-        <v>0.00997336102294917</v>
+        <v>1.962870523242297</v>
       </c>
       <c r="C2">
-        <v>1.960485656616025</v>
+        <v>0.007152886557977148</v>
       </c>
       <c r="D2">
-        <v>0.007152690099003078</v>
+        <v>0.0152764420595494</v>
       </c>
       <c r="E2">
-        <v>0.01527686164911541</v>
+        <v>2.699665225936796</v>
       </c>
       <c r="F2">
-        <v>2.699734364941941</v>
+        <v>0.02807162214720247</v>
       </c>
       <c r="G2">
-        <v>0.02807090324535299</v>
+        <v>2.049231854526323</v>
       </c>
       <c r="H2">
-        <v>2.05240236813687</v>
+        <v>1.96611048210964</v>
       </c>
       <c r="I2">
-        <v>1.963073270625118</v>
+        <v>0.00757128253549109</v>
       </c>
       <c r="J2">
-        <v>0.007590365492756344</v>
+        <v>0.5796737369800173</v>
       </c>
       <c r="K2">
-        <v>0.5782163777578381</v>
+        <v>5.491171760787266E-05</v>
       </c>
       <c r="L2">
-        <v>5.505011925324261E-05</v>
+        <v>0.5796737369800162</v>
       </c>
       <c r="M2">
-        <v>0.5782163777578369</v>
+        <v>1.304375740000597</v>
       </c>
       <c r="N2">
-        <v>1.309071817500407</v>
+        <v>0.3905746905468741</v>
       </c>
       <c r="O2">
-        <v>0.3891735687812444</v>
+        <v>0.1858572905735371</v>
       </c>
       <c r="P2">
-        <v>0.1860400417735171</v>
+        <v>1.123816503707321</v>
       </c>
       <c r="Q2">
-        <v>1.122712554188432</v>
+        <v>0.2433216998536569</v>
       </c>
       <c r="R2">
-        <v>0.2438100470156301</v>
+        <v>1.242209737263474</v>
       </c>
       <c r="S2">
-        <v>1.239721613385096</v>
+        <v>2.677188719333276E-05</v>
       </c>
       <c r="T2">
-        <v>2.6789621664995E-05</v>
+        <v>1.961471434764395</v>
       </c>
       <c r="U2">
-        <v>1.960172959555931</v>
+        <v>0.002686492688862681</v>
       </c>
       <c r="V2">
-        <v>0.002686425370585882</v>
+        <v>0.02806695786359331</v>
       </c>
       <c r="W2">
-        <v>0.02806766118454131</v>
+        <v>0.003691334578103914</v>
       </c>
       <c r="X2">
-        <v>0.003693779824791175</v>
-      </c>
-      <c r="Y2">
-        <v>1.960172959555932</v>
+        <v>1.961471434764396</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>0.01008994597213375</v>
       </c>
       <c r="B3">
-        <v>0.01009324283838837</v>
+        <v>0.1539072626769617</v>
       </c>
       <c r="C3">
-        <v>0.1538569902651329</v>
+        <v>0.007146476578249301</v>
       </c>
       <c r="D3">
-        <v>0.007146491487211143</v>
+        <v>0.008645789890353795</v>
       </c>
       <c r="E3">
-        <v>0.008645771853565843</v>
+        <v>0.2066608309837602</v>
       </c>
       <c r="F3">
-        <v>0.2066697492344409</v>
+        <v>0.006606785769375397</v>
       </c>
       <c r="G3">
-        <v>0.006606500672151914</v>
+        <v>0.2042512414366055</v>
       </c>
       <c r="H3">
-        <v>0.2041912661611159</v>
+        <v>0.2493350937131129</v>
       </c>
       <c r="I3">
-        <v>0.2494083286815609</v>
+        <v>0.009973398555351948</v>
       </c>
       <c r="J3">
-        <v>0.009970933639854433</v>
+        <v>0.2041518207318469</v>
       </c>
       <c r="K3">
-        <v>0.2042022891237693</v>
+        <v>7.233337845933775E-05</v>
       </c>
       <c r="L3">
-        <v>7.231550133705466E-05</v>
+        <v>0.2041518207318476</v>
       </c>
       <c r="M3">
-        <v>0.2042022891237699</v>
+        <v>0.003949417755412262</v>
       </c>
       <c r="N3">
-        <v>0.003964471341968575</v>
+        <v>1.462125318324901</v>
       </c>
       <c r="O3">
-        <v>1.456573448192161</v>
+        <v>0.008749439814050991</v>
       </c>
       <c r="P3">
-        <v>0.008750741098886294</v>
+        <v>0.2027901482378057</v>
       </c>
       <c r="Q3">
-        <v>0.202759992192544</v>
+        <v>3.473706441349279E-05</v>
       </c>
       <c r="R3">
-        <v>3.473526551252676E-05</v>
+        <v>1.438929490310329</v>
       </c>
       <c r="S3">
-        <v>1.439004010876445</v>
+        <v>0.00035405897121617</v>
       </c>
       <c r="T3">
-        <v>0.0003542033707359124</v>
+        <v>0.154810568843176</v>
       </c>
       <c r="U3">
-        <v>0.1547474565928731</v>
+        <v>0.03509436625080009</v>
       </c>
       <c r="V3">
-        <v>0.03509285342031576</v>
+        <v>0.006605822875096879</v>
       </c>
       <c r="W3">
-        <v>0.006606107647899473</v>
+        <v>0.04881800501025674</v>
       </c>
       <c r="X3">
-        <v>0.04883791496043834</v>
-      </c>
-      <c r="Y3">
-        <v>0.1547474565928738</v>
+        <v>0.1548105688431767</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>0.009832992527296927</v>
       </c>
       <c r="B4">
-        <v>0.009845185827060655</v>
+        <v>2.739656761238819</v>
       </c>
       <c r="C4">
-        <v>2.736263686011362</v>
+        <v>0.007151795994931184</v>
       </c>
       <c r="D4">
-        <v>0.007151856555775705</v>
+        <v>0.01170790820216099</v>
       </c>
       <c r="E4">
-        <v>0.01170780906135709</v>
+        <v>2.70014646067662</v>
       </c>
       <c r="F4">
-        <v>2.700266009951316</v>
+        <v>0.03700090315656094</v>
       </c>
       <c r="G4">
-        <v>0.03699926501012678</v>
+        <v>2.062658921028557</v>
       </c>
       <c r="H4">
-        <v>2.065448788881244</v>
+        <v>2.580924402976124</v>
       </c>
       <c r="I4">
-        <v>2.577438265696498</v>
+        <v>0.0075704236044627</v>
       </c>
       <c r="J4">
-        <v>0.007573149070584113</v>
+        <v>0.5468727331988236</v>
       </c>
       <c r="K4">
-        <v>0.5466759216620156</v>
+        <v>5.490548809816219E-05</v>
       </c>
       <c r="L4">
-        <v>5.492525489794904E-05</v>
+        <v>0.5468727331988246</v>
       </c>
       <c r="M4">
-        <v>0.5466759216620167</v>
+        <v>1.314749975666363</v>
       </c>
       <c r="N4">
-        <v>1.311155567525371</v>
+        <v>0.4947207980727624</v>
       </c>
       <c r="O4">
-        <v>0.496077028033687</v>
+        <v>0.1835754274467642</v>
       </c>
       <c r="P4">
-        <v>0.1828051483616967</v>
+        <v>1.631595041133846</v>
       </c>
       <c r="Q4">
-        <v>1.638470030961806</v>
+        <v>0.2403903187917362</v>
       </c>
       <c r="R4">
-        <v>0.2398292404438166</v>
+        <v>1.482629754466869</v>
       </c>
       <c r="S4">
-        <v>1.486098353423665</v>
+        <v>2.643425728350455E-05</v>
       </c>
       <c r="T4">
-        <v>2.644540216772811E-05</v>
+        <v>2.734339100375156</v>
       </c>
       <c r="U4">
-        <v>2.733186768014757</v>
+        <v>0.002686013887572088</v>
       </c>
       <c r="V4">
-        <v>0.002685897542979199</v>
+        <v>0.03699627765285967</v>
       </c>
       <c r="W4">
-        <v>0.03699788021468232</v>
+        <v>0.003644781828506891</v>
       </c>
       <c r="X4">
-        <v>0.003646318496288519</v>
-      </c>
-      <c r="Y4">
-        <v>2.733186768014757</v>
+        <v>2.734339100375156</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>0.01009261194715372</v>
       </c>
       <c r="B5">
-        <v>0.01009664674163709</v>
+        <v>0.1815145791075138</v>
       </c>
       <c r="C5">
-        <v>0.1814420427455736</v>
+        <v>0.007143766464078979</v>
       </c>
       <c r="D5">
-        <v>0.007144182556459799</v>
+        <v>0.00924461003540011</v>
       </c>
       <c r="E5">
-        <v>0.00924407160965735</v>
+        <v>0.2336351555359475</v>
       </c>
       <c r="F5">
-        <v>0.2336361999524751</v>
+        <v>0.007348094278974184</v>
       </c>
       <c r="G5">
-        <v>0.007348061431020347</v>
+        <v>0.2313213559249934</v>
       </c>
       <c r="H5">
-        <v>0.2318820704212189</v>
+        <v>0.3573170300611261</v>
       </c>
       <c r="I5">
-        <v>0.3564530010392204</v>
+        <v>0.01000313703318083</v>
       </c>
       <c r="J5">
-        <v>0.01000171349897402</v>
+        <v>0.2592208943005034</v>
       </c>
       <c r="K5">
-        <v>0.2592577889596231</v>
+        <v>7.254906066231629E-05</v>
       </c>
       <c r="L5">
-        <v>7.253873629415232E-05</v>
+        <v>0.2592208943005034</v>
       </c>
       <c r="M5">
-        <v>0.2592577889596231</v>
+        <v>0.005043100452783133</v>
       </c>
       <c r="N5">
-        <v>0.005051146180758019</v>
+        <v>1.045435062334152</v>
       </c>
       <c r="O5">
-        <v>1.043769839070769</v>
+        <v>0.005272030500984569</v>
       </c>
       <c r="P5">
-        <v>0.005277965326098039</v>
+        <v>0.223218453701108</v>
       </c>
       <c r="Q5">
-        <v>0.2229674549917636</v>
+        <v>2.677692960368516E-05</v>
       </c>
       <c r="R5">
-        <v>2.660352770088156E-05</v>
+        <v>1.070475742723696</v>
       </c>
       <c r="S5">
-        <v>1.077453108010752</v>
+        <v>0.0003132199881161283</v>
       </c>
       <c r="T5">
-        <v>0.0003134177866861873</v>
+        <v>0.1836817549527704</v>
       </c>
       <c r="U5">
-        <v>0.1835658330427227</v>
+        <v>0.03104254955110346</v>
       </c>
       <c r="V5">
-        <v>0.0310424124972528</v>
+        <v>0.007347494041195281</v>
       </c>
       <c r="W5">
-        <v>0.007347526480760059</v>
+        <v>0.04318708518143988</v>
       </c>
       <c r="X5">
-        <v>0.0432143578460782</v>
-      </c>
-      <c r="Y5">
-        <v>0.1835658330427229</v>
+        <v>0.1836817549527706</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>0.009697431215215623</v>
       </c>
       <c r="B6">
-        <v>0.009610905161277794</v>
+        <v>2.197104394290268</v>
       </c>
       <c r="C6">
-        <v>2.216884713639723</v>
+        <v>0.007152347876721195</v>
       </c>
       <c r="D6">
-        <v>0.007152533880168177</v>
+        <v>0.01300692784379653</v>
       </c>
       <c r="E6">
-        <v>0.01300658959535841</v>
+        <v>2.700216535327985</v>
       </c>
       <c r="F6">
-        <v>2.70015378945054</v>
+        <v>0.02630887413472809</v>
       </c>
       <c r="G6">
-        <v>0.0263094854974581</v>
+        <v>2.090798824649379</v>
       </c>
       <c r="H6">
-        <v>2.110443848123511</v>
+        <v>2.25260323556981</v>
       </c>
       <c r="I6">
-        <v>2.231634924339913</v>
+        <v>0.007550917964567539</v>
       </c>
       <c r="J6">
-        <v>0.007550388176804348</v>
+        <v>0.3859442305681679</v>
       </c>
       <c r="K6">
-        <v>0.3859713111004321</v>
+        <v>5.476402089169313E-05</v>
       </c>
       <c r="L6">
-        <v>5.476017853659567E-05</v>
+        <v>0.3859442305681656</v>
       </c>
       <c r="M6">
-        <v>0.3859713111004299</v>
+        <v>1.306441663080297</v>
       </c>
       <c r="N6">
-        <v>1.307918603085533</v>
+        <v>0.4318710100785045</v>
       </c>
       <c r="O6">
-        <v>0.4313833286812205</v>
+        <v>0.1834064808753819</v>
       </c>
       <c r="P6">
-        <v>0.1849651350502823</v>
+        <v>0.9942256922753921</v>
       </c>
       <c r="Q6">
-        <v>0.9858476050989249</v>
+        <v>0.2396394654123996</v>
       </c>
       <c r="R6">
-        <v>0.2415213022955926</v>
+        <v>1.07764717069849</v>
       </c>
       <c r="S6">
-        <v>1.069250577215374</v>
+        <v>2.587784599606428E-05</v>
       </c>
       <c r="T6">
-        <v>2.56898799054474E-05</v>
+        <v>2.068610201843445</v>
       </c>
       <c r="U6">
-        <v>2.08374567830662</v>
+        <v>0.00268594418150064</v>
       </c>
       <c r="V6">
-        <v>0.002686007898347966</v>
+        <v>0.02630432617514534</v>
       </c>
       <c r="W6">
-        <v>0.02630370219010942</v>
+        <v>0.003568063283783339</v>
       </c>
       <c r="X6">
-        <v>0.003542146331242991</v>
-      </c>
-      <c r="Y6">
-        <v>2.083745678306623</v>
+        <v>2.068610201843446</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>0.01005372823860202</v>
       </c>
       <c r="B7">
-        <v>0.0100631549356115</v>
+        <v>0.23382562357564</v>
       </c>
       <c r="C7">
-        <v>0.2336065865717777</v>
+        <v>0.007146696824035621</v>
       </c>
       <c r="D7">
-        <v>0.00714637004674184</v>
+        <v>0.004422173853516799</v>
       </c>
       <c r="E7">
-        <v>0.004422376063309327</v>
+        <v>1.199850464872322</v>
       </c>
       <c r="F7">
-        <v>1.199835149284317</v>
+        <v>0.005102362494934654</v>
       </c>
       <c r="G7">
-        <v>0.005102427625283499</v>
+        <v>0.9434278463858526</v>
       </c>
       <c r="H7">
-        <v>0.9439798895931439</v>
+        <v>0.2424129216555206</v>
       </c>
       <c r="I7">
-        <v>0.2422711576113551</v>
+        <v>0.007917464748303321</v>
       </c>
       <c r="J7">
-        <v>0.007920132992806502</v>
+        <v>0.07785772160746668</v>
       </c>
       <c r="K7">
-        <v>0.07783149181588388</v>
+        <v>5.742244941872572E-05</v>
       </c>
       <c r="L7">
-        <v>5.744180121123652E-05</v>
+        <v>0.07785772160746518</v>
       </c>
       <c r="M7">
-        <v>0.07783149181588236</v>
+        <v>0.01605287965662441</v>
       </c>
       <c r="N7">
-        <v>0.01605226273450913</v>
+        <v>0.779350517712981</v>
       </c>
       <c r="O7">
-        <v>0.7793804697875195</v>
+        <v>0.001832262488076048</v>
       </c>
       <c r="P7">
-        <v>0.001833180453243335</v>
+        <v>0.1628395430753418</v>
       </c>
       <c r="Q7">
-        <v>0.1627580011692323</v>
+        <v>2.945231777852079E-05</v>
       </c>
       <c r="R7">
-        <v>2.943784674350832E-05</v>
+        <v>0.6766112587055256</v>
       </c>
       <c r="S7">
-        <v>0.6769438667695552</v>
+        <v>6.077683843421332E-05</v>
       </c>
       <c r="T7">
-        <v>6.08283836560856E-05</v>
+        <v>0.2347256303114537</v>
       </c>
       <c r="U7">
-        <v>0.2345267267081306</v>
+        <v>0.006044612311441477</v>
       </c>
       <c r="V7">
-        <v>0.006044689634610246</v>
+        <v>0.00510255304152286</v>
       </c>
       <c r="W7">
-        <v>0.005102487770087297</v>
+        <v>0.008379971260147764</v>
       </c>
       <c r="X7">
-        <v>0.008387078366884735</v>
-      </c>
-      <c r="Y7">
-        <v>0.2345267267081307</v>
+        <v>0.2347256303114538</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>0.01026103860727572</v>
       </c>
       <c r="B8">
-        <v>0.0103026309260848</v>
+        <v>2.027776625921152</v>
       </c>
       <c r="C8">
-        <v>2.019590374030348</v>
+        <v>0.007152602202268695</v>
       </c>
       <c r="D8">
-        <v>0.00715285375816286</v>
+        <v>0.008037263385251693</v>
       </c>
       <c r="E8">
-        <v>0.008036980725903987</v>
+        <v>2.699567456006108</v>
       </c>
       <c r="F8">
-        <v>2.69988643441295</v>
+        <v>0.03080969640979642</v>
       </c>
       <c r="G8">
-        <v>0.03080605639451622</v>
+        <v>1.978940293122732</v>
       </c>
       <c r="H8">
-        <v>1.985595873575551</v>
+        <v>1.874324424412318</v>
       </c>
       <c r="I8">
-        <v>1.868041818184448</v>
+        <v>0.00753933995030118</v>
       </c>
       <c r="J8">
-        <v>0.007546877840750275</v>
+        <v>0.3572020819326557</v>
       </c>
       <c r="K8">
-        <v>0.3568453052339184</v>
+        <v>5.468004982775857E-05</v>
       </c>
       <c r="L8">
-        <v>5.473471936488912E-05</v>
+        <v>0.3572020819326537</v>
       </c>
       <c r="M8">
-        <v>0.3568453052339162</v>
+        <v>1.306722251457516</v>
       </c>
       <c r="N8">
-        <v>1.311388542890548</v>
+        <v>0.5146713503010701</v>
       </c>
       <c r="O8">
-        <v>0.512840004033973</v>
+        <v>0.185253596318122</v>
       </c>
       <c r="P8">
-        <v>0.1863179305381251</v>
+        <v>1.212000323904092</v>
       </c>
       <c r="Q8">
-        <v>1.205076817316936</v>
+        <v>0.2425108425414111</v>
       </c>
       <c r="R8">
-        <v>0.2426426397579635</v>
+        <v>1.061813396666461</v>
       </c>
       <c r="S8">
-        <v>1.061236647046863</v>
+        <v>2.752730462833846E-05</v>
       </c>
       <c r="T8">
-        <v>2.75235375707979E-05</v>
+        <v>2.236535409400454</v>
       </c>
       <c r="U8">
-        <v>2.236841516766088</v>
+        <v>0.002686589987829943</v>
       </c>
       <c r="V8">
-        <v>0.002686274425587396</v>
+        <v>0.03079524998039608</v>
       </c>
       <c r="W8">
-        <v>0.03079886756244617</v>
+        <v>0.003795492289459935</v>
       </c>
       <c r="X8">
-        <v>0.003794972883799185</v>
-      </c>
-      <c r="Y8">
-        <v>2.236841516766087</v>
+        <v>2.236535409400454</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>0.01011623851831613</v>
       </c>
       <c r="B9">
-        <v>0.0101097563918462</v>
+        <v>0.2172817019636106</v>
       </c>
       <c r="C9">
-        <v>0.2174210176322718</v>
+        <v>0.007140714064339649</v>
       </c>
       <c r="D9">
-        <v>0.007139706947220212</v>
+        <v>0.01378266976216626</v>
       </c>
       <c r="E9">
-        <v>0.01378461392636959</v>
+        <v>0.2165355065244869</v>
       </c>
       <c r="F9">
-        <v>0.216535633521517</v>
+        <v>0.01026035202672541</v>
       </c>
       <c r="G9">
-        <v>0.01026034600908197</v>
+        <v>0.2334352529381247</v>
       </c>
       <c r="H9">
-        <v>0.2335682257247599</v>
+        <v>0.3548351581228514</v>
       </c>
       <c r="I9">
-        <v>0.3546331468277562</v>
+        <v>0.01091039006818723</v>
       </c>
       <c r="J9">
-        <v>0.01090449686388939</v>
+        <v>0.3065841737388729</v>
       </c>
       <c r="K9">
-        <v>0.3067498634715474</v>
+        <v>7.912903205073378E-05</v>
       </c>
       <c r="L9">
-        <v>7.908629081519126E-05</v>
+        <v>0.3065841737388719</v>
       </c>
       <c r="M9">
-        <v>0.3067498634715464</v>
+        <v>0.003737391699769426</v>
       </c>
       <c r="N9">
-        <v>0.003778070051938005</v>
+        <v>1.704172905027166</v>
       </c>
       <c r="O9">
-        <v>1.685824133132033</v>
+        <v>0.2040192915948994</v>
       </c>
       <c r="P9">
-        <v>0.2038956853966547</v>
+        <v>0.3617688720498906</v>
       </c>
       <c r="Q9">
-        <v>0.361988184561729</v>
+        <v>0.0007622901009409115</v>
       </c>
       <c r="R9">
-        <v>0.0007708392229382031</v>
+        <v>1.65233188964789</v>
       </c>
       <c r="S9">
-        <v>1.634006425031843</v>
+        <v>0.0003390352439901195</v>
       </c>
       <c r="T9">
-        <v>0.0003386254559918647</v>
+        <v>0.2178770260259446</v>
       </c>
       <c r="U9">
-        <v>0.2181406901680846</v>
+        <v>0.03349395675826432</v>
       </c>
       <c r="V9">
-        <v>0.03349394072717569</v>
+        <v>0.01026071591533561</v>
       </c>
       <c r="W9">
-        <v>0.01026072082638646</v>
+        <v>0.04674651847660165</v>
       </c>
       <c r="X9">
-        <v>0.04669001649761429</v>
-      </c>
-      <c r="Y9">
-        <v>0.2181406901680846</v>
+        <v>0.2178770260259446</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>0.01021796669269981</v>
       </c>
       <c r="B10">
-        <v>0.01022115342920602</v>
+        <v>2.464969218734729</v>
       </c>
       <c r="C10">
-        <v>2.464200694179215</v>
+        <v>0.007149775670069237</v>
       </c>
       <c r="D10">
-        <v>0.007150054958928672</v>
+        <v>0.01121404116005602</v>
       </c>
       <c r="E10">
-        <v>0.01121360312751177</v>
+        <v>2.699371761384864</v>
       </c>
       <c r="F10">
-        <v>2.699550268044758</v>
+        <v>0.03044436718299483</v>
       </c>
       <c r="G10">
-        <v>0.030442354061638</v>
+        <v>1.977029734356542</v>
       </c>
       <c r="H10">
-        <v>2.00958250076545</v>
+        <v>2.517863072795387</v>
       </c>
       <c r="I10">
-        <v>2.477076785879024</v>
+        <v>0.007584061420027238</v>
       </c>
       <c r="J10">
-        <v>0.007561650314887386</v>
+        <v>0.5145626539687544</v>
       </c>
       <c r="K10">
-        <v>0.5160877070006874</v>
+        <v>5.500439814062298E-05</v>
       </c>
       <c r="L10">
-        <v>5.484185866716507E-05</v>
+        <v>0.514562653968755</v>
       </c>
       <c r="M10">
-        <v>0.5160877070006877</v>
+        <v>1.31198211161838</v>
       </c>
       <c r="N10">
-        <v>1.308211458257891</v>
+        <v>0.5852111832517713</v>
       </c>
       <c r="O10">
-        <v>0.5868979354207692</v>
+        <v>0.185502110747175</v>
       </c>
       <c r="P10">
-        <v>0.1845649695257608</v>
+        <v>1.197099795517714</v>
       </c>
       <c r="Q10">
-        <v>1.203178151380198</v>
+        <v>0.2426119769278209</v>
       </c>
       <c r="R10">
-        <v>0.2408392661951705</v>
+        <v>1.089212606070897</v>
       </c>
       <c r="S10">
-        <v>1.097229815670577</v>
+        <v>2.743818321164561E-05</v>
       </c>
       <c r="T10">
-        <v>2.745892199183365E-05</v>
+        <v>2.460835181104925</v>
       </c>
       <c r="U10">
-        <v>2.45897659685624</v>
+        <v>0.002686784758885548</v>
       </c>
       <c r="V10">
-        <v>0.002686608895678516</v>
+        <v>0.03043832466049294</v>
       </c>
       <c r="W10">
-        <v>0.03044031712817222</v>
+        <v>0.003783204139404909</v>
       </c>
       <c r="X10">
-        <v>0.003786063623156016</v>
-      </c>
-      <c r="Y10">
-        <v>2.458976596856237</v>
+        <v>2.460835181104924</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>0.01010245537134485</v>
       </c>
       <c r="B11">
-        <v>0.01010411860862796</v>
+        <v>0.20557468358189</v>
       </c>
       <c r="C11">
-        <v>0.2055408439674278</v>
+        <v>0.007138513504011248</v>
       </c>
       <c r="D11">
-        <v>0.007138535263721026</v>
+        <v>0.0141610651126206</v>
       </c>
       <c r="E11">
-        <v>0.01416102194680918</v>
+        <v>0.2178755075682475</v>
       </c>
       <c r="F11">
-        <v>0.2178818242006877</v>
+        <v>0.01122080149847588</v>
       </c>
       <c r="G11">
-        <v>0.0112204761951652</v>
+        <v>0.2330568359602034</v>
       </c>
       <c r="H11">
-        <v>0.2328540759504767</v>
+        <v>0.3516882250924535</v>
       </c>
       <c r="I11">
-        <v>0.3519944611231068</v>
+        <v>0.01079175769541133</v>
       </c>
       <c r="J11">
-        <v>0.01079389989522003</v>
+        <v>0.2817314905453857</v>
       </c>
       <c r="K11">
-        <v>0.2816755770061634</v>
+        <v>7.826863523916513E-05</v>
       </c>
       <c r="L11">
-        <v>7.828417182367429E-05</v>
+        <v>0.2817314905453858</v>
       </c>
       <c r="M11">
-        <v>0.2816755770061635</v>
+        <v>0.003081895319120848</v>
       </c>
       <c r="N11">
-        <v>0.003089311601781977</v>
+        <v>2.013327251059453</v>
       </c>
       <c r="O11">
-        <v>2.008494004722438</v>
+        <v>0.1752807584658865</v>
       </c>
       <c r="P11">
-        <v>0.1751657139598176</v>
+        <v>0.2250119804687591</v>
       </c>
       <c r="Q11">
-        <v>0.2251597627691157</v>
+        <v>0.0005391177442665972</v>
       </c>
       <c r="R11">
-        <v>0.0005390468982934128</v>
+        <v>1.89268377583378</v>
       </c>
       <c r="S11">
-        <v>1.892932527889406</v>
+        <v>0.0003362620077847504</v>
       </c>
       <c r="T11">
-        <v>0.0003363293491919097</v>
+        <v>0.2042143361336712</v>
       </c>
       <c r="U11">
-        <v>0.2041734474012714</v>
+        <v>0.03328795867329971</v>
       </c>
       <c r="V11">
-        <v>0.03328699801899457</v>
+        <v>0.01121936348686214</v>
       </c>
       <c r="W11">
-        <v>0.01121968727484172</v>
+        <v>0.04636414189536917</v>
       </c>
       <c r="X11">
-        <v>0.04637342699592971</v>
-      </c>
-      <c r="Y11">
-        <v>0.204173447401271</v>
+        <v>0.204214336133671</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>0.01004144044634825</v>
       </c>
       <c r="B12">
-        <v>0.01008592823802436</v>
+        <v>2.25103903449296</v>
       </c>
       <c r="C12">
-        <v>2.241109977567514</v>
+        <v>0.007147801268256524</v>
       </c>
       <c r="D12">
-        <v>0.007147565297795659</v>
+        <v>0.01339012438263621</v>
       </c>
       <c r="E12">
-        <v>0.01339056644558912</v>
+        <v>2.69923288986883</v>
       </c>
       <c r="F12">
-        <v>2.698927650886676</v>
+        <v>0.03248106092088641</v>
       </c>
       <c r="G12">
-        <v>0.03248473441171584</v>
+        <v>2.026087773141621</v>
       </c>
       <c r="H12">
-        <v>2.029487305133573</v>
+        <v>2.221505015930904</v>
       </c>
       <c r="I12">
-        <v>2.217783840955907</v>
+        <v>0.00751384298070768</v>
       </c>
       <c r="J12">
-        <v>0.007540186382967215</v>
+        <v>0.4181284714333316</v>
       </c>
       <c r="K12">
-        <v>0.4166676419578142</v>
+        <v>5.449512971843604E-05</v>
       </c>
       <c r="L12">
-        <v>5.468618869146012E-05</v>
+        <v>0.4181284714333318</v>
       </c>
       <c r="M12">
-        <v>0.4166676419578146</v>
+        <v>1.307707327670396</v>
       </c>
       <c r="N12">
-        <v>1.309024052495404</v>
+        <v>0.4180876682915063</v>
       </c>
       <c r="O12">
-        <v>0.4176671210824465</v>
+        <v>0.1841326948524134</v>
       </c>
       <c r="P12">
-        <v>0.1834579260313394</v>
+        <v>1.197415013283272</v>
       </c>
       <c r="Q12">
-        <v>1.201819174685988</v>
+        <v>0.2394699859501622</v>
       </c>
       <c r="R12">
-        <v>0.2394029724055608</v>
+        <v>1.003643045959672</v>
       </c>
       <c r="S12">
-        <v>1.003923985153319</v>
+        <v>2.700103486793983E-05</v>
       </c>
       <c r="T12">
-        <v>2.710473825830232E-05</v>
+        <v>2.240694193480249</v>
       </c>
       <c r="U12">
-        <v>2.232121242787457</v>
+        <v>0.002686922984332955</v>
       </c>
       <c r="V12">
-        <v>0.002687228851249294</v>
+        <v>0.03249850934982475</v>
       </c>
       <c r="W12">
-        <v>0.03249481029053702</v>
+        <v>0.003722929688626412</v>
       </c>
       <c r="X12">
-        <v>0.003737228415792983</v>
-      </c>
-      <c r="Y12">
-        <v>2.232121242787459</v>
+        <v>2.24069419348025</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>0.0101115943928883</v>
       </c>
       <c r="B13">
-        <v>0.01010680905409118</v>
+        <v>0.2162261397294552</v>
       </c>
       <c r="C13">
-        <v>0.2163285177727984</v>
+        <v>0.007136182713633183</v>
       </c>
       <c r="D13">
-        <v>0.007136505571005531</v>
+        <v>0.01000444412390114</v>
       </c>
       <c r="E13">
-        <v>0.01000399152024105</v>
+        <v>0.251326269031333</v>
       </c>
       <c r="F13">
-        <v>0.2513240700061368</v>
+        <v>0.007930954073220449</v>
       </c>
       <c r="G13">
-        <v>0.007931023467162051</v>
+        <v>0.2688627091468572</v>
       </c>
       <c r="H13">
-        <v>0.2691946623649301</v>
+        <v>0.3682272648899095</v>
       </c>
       <c r="I13">
-        <v>0.3677731911557257</v>
+        <v>0.0108257428119855</v>
       </c>
       <c r="J13">
-        <v>0.01082980316209494</v>
+        <v>0.2935310643613226</v>
       </c>
       <c r="K13">
-        <v>0.2934210126021664</v>
+        <v>7.851511674549432E-05</v>
       </c>
       <c r="L13">
-        <v>7.854456496612981E-05</v>
+        <v>0.2935310643613226</v>
       </c>
       <c r="M13">
-        <v>0.2934210126021664</v>
+        <v>0.002136195864996881</v>
       </c>
       <c r="N13">
-        <v>0.002169410590432842</v>
+        <v>3.436335254553101</v>
       </c>
       <c r="O13">
-        <v>3.38372329972572</v>
+        <v>0.1244977024869457</v>
       </c>
       <c r="P13">
-        <v>0.1241465599883352</v>
+        <v>0.3222225033524584</v>
       </c>
       <c r="Q13">
-        <v>0.3231338940099711</v>
+        <v>0.0002666264610372469</v>
       </c>
       <c r="R13">
-        <v>0.0002694070885645056</v>
+        <v>3.371512403035188</v>
       </c>
       <c r="S13">
-        <v>3.336714060325177</v>
+        <v>0.0002918084415238828</v>
       </c>
       <c r="T13">
-        <v>0.0002916523848727634</v>
+        <v>0.2172125728437054</v>
       </c>
       <c r="U13">
-        <v>0.2173287984206496</v>
+        <v>0.02885743269720854</v>
       </c>
       <c r="V13">
-        <v>0.02885768704636412</v>
+        <v>0.007931023915371446</v>
       </c>
       <c r="W13">
-        <v>0.007930954012013198</v>
+        <v>0.04023483972575447</v>
       </c>
       <c r="X13">
-        <v>0.04021332247864149</v>
-      </c>
-      <c r="Y13">
-        <v>0.2173287984206503</v>
+        <v>0.2172125728437061</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>0.01009893694170262</v>
       </c>
       <c r="B14">
-        <v>0.00998115043176886</v>
+        <v>1.902224687024119</v>
       </c>
       <c r="C14">
-        <v>1.92467264114785</v>
+        <v>0.007142928439864625</v>
       </c>
       <c r="D14">
-        <v>0.007142999935058067</v>
+        <v>0.01116247162976801</v>
       </c>
       <c r="E14">
-        <v>0.01116235990317194</v>
+        <v>2.699143536515972</v>
       </c>
       <c r="F14">
-        <v>2.699295441423195</v>
+        <v>0.02285542382267191</v>
       </c>
       <c r="G14">
-        <v>0.02285413761628559</v>
+        <v>2.03400585011754</v>
       </c>
       <c r="H14">
-        <v>2.035269129662293</v>
+        <v>2.282582612953873</v>
       </c>
       <c r="I14">
-        <v>2.281165827388696</v>
+        <v>0.007538680295291684</v>
       </c>
       <c r="J14">
-        <v>0.007543334296131352</v>
+        <v>0.5073577851681577</v>
       </c>
       <c r="K14">
-        <v>0.5070447613161728</v>
+        <v>5.467526559345874E-05</v>
       </c>
       <c r="L14">
-        <v>5.470901934371923E-05</v>
+        <v>0.5073577851681571</v>
       </c>
       <c r="M14">
-        <v>0.5070447613161724</v>
+        <v>1.307635708953232</v>
       </c>
       <c r="N14">
-        <v>1.306586061940827</v>
+        <v>0.5589485437731275</v>
       </c>
       <c r="O14">
-        <v>0.5593975755561453</v>
+        <v>0.1854040060896001</v>
       </c>
       <c r="P14">
-        <v>0.1859059235266895</v>
+        <v>1.631036350782768</v>
       </c>
       <c r="Q14">
-        <v>1.626632803174093</v>
+        <v>0.2435849483970045</v>
       </c>
       <c r="R14">
-        <v>0.2425487062042469</v>
+        <v>1.594612213608133</v>
       </c>
       <c r="S14">
-        <v>1.601424884278229</v>
+        <v>2.708747635251236E-05</v>
       </c>
       <c r="T14">
-        <v>2.681598631746278E-05</v>
+        <v>1.918612686856566</v>
       </c>
       <c r="U14">
-        <v>1.938037078688914</v>
+        <v>0.002687011933132555</v>
       </c>
       <c r="V14">
-        <v>0.002686861631368809</v>
+        <v>0.02284493108924173</v>
       </c>
       <c r="W14">
-        <v>0.02284620902383846</v>
+        <v>0.003734848326960757</v>
       </c>
       <c r="X14">
-        <v>0.003697415009438085</v>
-      </c>
-      <c r="Y14">
-        <v>1.938037078688913</v>
+        <v>1.918612686856565</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>0.01004770532468162</v>
       </c>
       <c r="B15">
-        <v>0.01004253225265734</v>
+        <v>0.2454954933835779</v>
       </c>
       <c r="C15">
-        <v>0.2456219521130057</v>
+        <v>0.007129969244681484</v>
       </c>
       <c r="D15">
-        <v>0.007129887470322757</v>
+        <v>0.01317652208460304</v>
       </c>
       <c r="E15">
-        <v>0.01317667320923834</v>
+        <v>0.2586073789199175</v>
       </c>
       <c r="F15">
-        <v>0.2586172007450763</v>
+        <v>0.01059919274320415</v>
       </c>
       <c r="G15">
-        <v>0.01059879020455766</v>
+        <v>0.2817234582204513</v>
       </c>
       <c r="H15">
-        <v>0.2817309799709</v>
+        <v>0.3101917342489554</v>
       </c>
       <c r="I15">
-        <v>0.3101834526435157</v>
+        <v>0.01092751173250418</v>
       </c>
       <c r="J15">
-        <v>0.01093824761712564</v>
+        <v>0.2970616843806783</v>
       </c>
       <c r="K15">
-        <v>0.2967701184845128</v>
+        <v>7.925320916227894E-05</v>
       </c>
       <c r="L15">
-        <v>7.933107257073591E-05</v>
+        <v>0.2970616843806777</v>
       </c>
       <c r="M15">
-        <v>0.2967701184845123</v>
+        <v>0.001114441751960641</v>
       </c>
       <c r="N15">
-        <v>0.001142119162507197</v>
+        <v>4.825027605881014</v>
       </c>
       <c r="O15">
-        <v>4.708100866246179</v>
+        <v>0.06761040704308535</v>
       </c>
       <c r="P15">
-        <v>0.06762492146341191</v>
+        <v>0.2364790635545286</v>
       </c>
       <c r="Q15">
-        <v>0.2364283077613597</v>
+        <v>7.451978016500054E-05</v>
       </c>
       <c r="R15">
-        <v>7.722983422122712E-05</v>
+        <v>4.806460907032127</v>
       </c>
       <c r="S15">
-        <v>4.637798511099951</v>
+        <v>0.0002818193528565466</v>
       </c>
       <c r="T15">
-        <v>0.0002816295599135438</v>
+        <v>0.2476464797324073</v>
       </c>
       <c r="U15">
-        <v>0.2478133711419138</v>
+        <v>0.02804494953923593</v>
       </c>
       <c r="V15">
-        <v>0.02804388782615755</v>
+        <v>0.01059754370034498</v>
       </c>
       <c r="W15">
-        <v>0.01059794491257401</v>
+        <v>0.03885753419121349</v>
       </c>
       <c r="X15">
-        <v>0.03883136535043934</v>
-      </c>
-      <c r="Y15">
-        <v>0.2478133711419136</v>
+        <v>0.2476464797324072</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>0.009827845688244718</v>
       </c>
       <c r="B16">
-        <v>0.009839650546237632</v>
+        <v>2.84730892256252</v>
       </c>
       <c r="C16">
-        <v>2.843892939714871</v>
+        <v>0.007141291241300241</v>
       </c>
       <c r="D16">
-        <v>0.007141929474797696</v>
+        <v>0.01271564913913197</v>
       </c>
       <c r="E16">
-        <v>0.01271451281410229</v>
+        <v>2.700039426798265</v>
       </c>
       <c r="F16">
-        <v>2.69991418258788</v>
+        <v>0.01861722934751317</v>
       </c>
       <c r="G16">
-        <v>0.01861809296762533</v>
+        <v>2.060270047531338</v>
       </c>
       <c r="H16">
-        <v>2.073861531383426</v>
+        <v>2.757976101813332</v>
       </c>
       <c r="I16">
-        <v>2.73990113051704</v>
+        <v>0.00755785461697289</v>
       </c>
       <c r="J16">
-        <v>0.007562266892537042</v>
+        <v>0.3357387846152894</v>
       </c>
       <c r="K16">
-        <v>0.3355428946716592</v>
+        <v>5.481432987121424E-05</v>
       </c>
       <c r="L16">
-        <v>5.484633047727418E-05</v>
+        <v>0.3357387846152898</v>
       </c>
       <c r="M16">
-        <v>0.3355428946716597</v>
+        <v>1.310351044139753</v>
       </c>
       <c r="N16">
-        <v>1.306436487872194</v>
+        <v>0.4603422860678995</v>
       </c>
       <c r="O16">
-        <v>0.4617216380669275</v>
+        <v>0.1866061634664274</v>
       </c>
       <c r="P16">
-        <v>0.1864390923511861</v>
+        <v>1.031188513535496</v>
       </c>
       <c r="Q16">
-        <v>1.032112578401977</v>
+        <v>0.2446881276162796</v>
       </c>
       <c r="R16">
-        <v>0.2441175972596215</v>
+        <v>0.9652395214792189</v>
       </c>
       <c r="S16">
-        <v>0.9674953951017355</v>
+        <v>2.636070083035564E-05</v>
       </c>
       <c r="T16">
-        <v>2.642886754123432E-05</v>
+        <v>2.849931058070026</v>
       </c>
       <c r="U16">
-        <v>2.842580367536028</v>
+        <v>0.002686120368757234</v>
       </c>
       <c r="V16">
-        <v>0.002686245598304683</v>
+        <v>0.01861861270819951</v>
       </c>
       <c r="W16">
-        <v>0.01861774473080941</v>
+        <v>0.003634639791190265</v>
       </c>
       <c r="X16">
-        <v>0.003644038685452928</v>
-      </c>
-      <c r="Y16">
-        <v>2.842580367536029</v>
+        <v>2.849931058070027</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>0.01005548825261242</v>
       </c>
       <c r="B17">
-        <v>0.01003473814674118</v>
+        <v>0.2700037257103315</v>
       </c>
       <c r="C17">
-        <v>0.2705620467957639</v>
+        <v>0.007131930731132563</v>
       </c>
       <c r="D17">
-        <v>0.00713156209183871</v>
+        <v>0.01540451839821937</v>
       </c>
       <c r="E17">
-        <v>0.01540531467689035</v>
+        <v>0.2431084282502725</v>
       </c>
       <c r="F17">
-        <v>0.243098139091581</v>
+        <v>0.01140958323325015</v>
       </c>
       <c r="G17">
-        <v>0.01141006614526638</v>
+        <v>0.2649461307948278</v>
       </c>
       <c r="H17">
-        <v>0.2650434022936007</v>
+        <v>0.4811820475426334</v>
       </c>
       <c r="I17">
-        <v>0.4810054526961212</v>
+        <v>0.01093244745218596</v>
       </c>
       <c r="J17">
-        <v>0.01093942573282234</v>
+        <v>0.3446913045471475</v>
       </c>
       <c r="K17">
-        <v>0.3444714253035021</v>
+        <v>7.928900611531657E-05</v>
       </c>
       <c r="L17">
-        <v>7.933961700903198E-05</v>
+        <v>0.3446913045471462</v>
       </c>
       <c r="M17">
-        <v>0.3444714253035008</v>
+        <v>0.0007395219577250334</v>
       </c>
       <c r="N17">
-        <v>0.0007156481390887092</v>
+        <v>5.283192883871619</v>
       </c>
       <c r="O17">
-        <v>5.459438697758428</v>
+        <v>0.1439051230913121</v>
       </c>
       <c r="P17">
-        <v>0.1440456998434467</v>
+        <v>0.4571551934591006</v>
       </c>
       <c r="Q17">
-        <v>0.4567090476013084</v>
+        <v>0.0001062990450873333</v>
       </c>
       <c r="R17">
-        <v>0.0001032486646449268</v>
+        <v>5.363753480131977</v>
       </c>
       <c r="S17">
-        <v>5.522220311349135</v>
+        <v>0.0002997848471345099</v>
       </c>
       <c r="T17">
-        <v>0.0002993853105466583</v>
+        <v>0.2710562526333295</v>
       </c>
       <c r="U17">
-        <v>0.2714179834413482</v>
+        <v>0.02983290601669222</v>
       </c>
       <c r="V17">
-        <v>0.02983417267971601</v>
+        <v>0.0114116961048708</v>
       </c>
       <c r="W17">
-        <v>0.01141121160095478</v>
+        <v>0.04133463450775336</v>
       </c>
       <c r="X17">
-        <v>0.04127954600348379</v>
-      </c>
-      <c r="Y17">
-        <v>0.271417983441348</v>
+        <v>0.2710562526333293</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>0.00987737974121343</v>
       </c>
       <c r="B18">
-        <v>0.01001326418251109</v>
+        <v>2.76298869834565</v>
       </c>
       <c r="C18">
-        <v>2.725493714817483</v>
+        <v>0.007137466684606165</v>
       </c>
       <c r="D18">
-        <v>0.007137321077415263</v>
+        <v>0.008464401600401874</v>
       </c>
       <c r="E18">
-        <v>0.008464574281121479</v>
+        <v>2.699033373748466</v>
       </c>
       <c r="F18">
-        <v>2.699179946064209</v>
+        <v>0.03428015221793641</v>
       </c>
       <c r="G18">
-        <v>0.0342782907187422</v>
+        <v>2.051474031996065</v>
       </c>
       <c r="H18">
-        <v>2.02759871663191</v>
+        <v>2.698220744522492</v>
       </c>
       <c r="I18">
-        <v>2.729992746876385</v>
+        <v>0.007552206795403923</v>
       </c>
       <c r="J18">
-        <v>0.007560832751976026</v>
+        <v>0.3705423161100648</v>
       </c>
       <c r="K18">
-        <v>0.3701195740614385</v>
+        <v>5.477336830603145E-05</v>
       </c>
       <c r="L18">
-        <v>5.483592918513809E-05</v>
+        <v>0.3705423161100651</v>
       </c>
       <c r="M18">
-        <v>0.3701195740614387</v>
+        <v>1.311961494621899</v>
       </c>
       <c r="N18">
-        <v>1.311473628760273</v>
+        <v>0.4441975244942596</v>
       </c>
       <c r="O18">
-        <v>0.4443627651847828</v>
+        <v>0.1862269008455796</v>
       </c>
       <c r="P18">
-        <v>0.1859483895316545</v>
+        <v>1.404203486251224</v>
       </c>
       <c r="Q18">
-        <v>1.406306685740927</v>
+        <v>0.2438785594021106</v>
       </c>
       <c r="R18">
-        <v>0.2438990092833687</v>
+        <v>1.362244299663067</v>
       </c>
       <c r="S18">
-        <v>1.362130081346829</v>
+        <v>2.655093096732004E-05</v>
       </c>
       <c r="T18">
-        <v>2.69051984609116E-05</v>
+        <v>2.757116590353025</v>
       </c>
       <c r="U18">
-        <v>2.720812944965569</v>
+        <v>0.002687121605237299</v>
       </c>
       <c r="V18">
-        <v>0.002686977897725426</v>
+        <v>0.03427591607244056</v>
       </c>
       <c r="W18">
-        <v>0.03427774924963941</v>
+        <v>0.003660868912705054</v>
       </c>
       <c r="X18">
-        <v>0.003709715668988952</v>
-      </c>
-      <c r="Y18">
-        <v>2.72081294496557</v>
+        <v>2.757116590353026</v>
       </c>
     </row>
   </sheetData>
